--- a/tests/integration_tests/baseline_results/Baseline_test_scenario_2.xlsx
+++ b/tests/integration_tests/baseline_results/Baseline_test_scenario_2.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10575" uniqueCount="1307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10576" uniqueCount="1308">
   <si>
     <t>value</t>
   </si>
@@ -3919,9 +3919,6 @@
     <t>solver_name</t>
   </si>
   <si>
-    <t>gurobi</t>
-  </si>
-  <si>
     <t>redispatch_quantity</t>
   </si>
   <si>
@@ -3956,6 +3953,12 @@
   </si>
   <si>
     <t>total_qty_cleared [%]</t>
+  </si>
+  <si>
+    <t>design_variable</t>
+  </si>
+  <si>
+    <t>glpk</t>
   </si>
 </sst>
 </file>
@@ -4014,9 +4017,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4326,7 +4332,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4464,7 +4470,7 @@
         <v>1293</v>
       </c>
       <c r="B17" t="s">
-        <v>1294</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -4492,6 +4498,9 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>1306</v>
+      </c>
       <c r="B22" s="1" t="s">
         <v>27</v>
       </c>
@@ -4714,7 +4723,7 @@
         <v>76</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>77</v>
@@ -4806,7 +4815,7 @@
         <v>136</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -19881,7 +19890,7 @@
         <v>683</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>126</v>
@@ -19926,7 +19935,7 @@
         <v>685</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
@@ -20457,7 +20466,7 @@
         <v>683</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>126</v>
@@ -20502,7 +20511,7 @@
         <v>685</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
@@ -21039,7 +21048,7 @@
         <v>130</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>136</v>
@@ -21462,7 +21471,7 @@
         <v>130</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>136</v>
@@ -22248,7 +22257,7 @@
         <v>683</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>126</v>
@@ -22290,7 +22299,7 @@
         <v>685</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
@@ -29689,7 +29698,7 @@
         <v>683</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>126</v>
@@ -29731,7 +29740,7 @@
         <v>685</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
@@ -33180,7 +33189,7 @@
         <v>136</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -33410,7 +33419,7 @@
         <v>136</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -33567,7 +33576,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>3</v>
       </c>
       <c r="B3" s="1">
@@ -33587,7 +33596,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
+      <c r="A4" s="3"/>
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -33596,7 +33605,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
+      <c r="A5" s="3"/>
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -33605,7 +33614,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
+      <c r="A6" s="3"/>
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -33614,7 +33623,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
+      <c r="A7" s="3"/>
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -33623,7 +33632,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
+      <c r="A8" s="3"/>
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -33632,7 +33641,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
+      <c r="A9" s="3"/>
       <c r="B9" s="1">
         <v>7</v>
       </c>
@@ -33641,7 +33650,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
+      <c r="A10" s="3"/>
       <c r="B10" s="1">
         <v>8</v>
       </c>
@@ -33650,7 +33659,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
+      <c r="A11" s="3"/>
       <c r="B11" s="1">
         <v>9</v>
       </c>
@@ -33662,7 +33671,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
+      <c r="A12" s="3"/>
       <c r="B12" s="1">
         <v>10</v>
       </c>
@@ -33680,7 +33689,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
+      <c r="A13" s="3"/>
       <c r="B13" s="1">
         <v>11</v>
       </c>
@@ -33698,7 +33707,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
+      <c r="A14" s="3"/>
       <c r="B14" s="1">
         <v>12</v>
       </c>
@@ -33716,7 +33725,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
+      <c r="A15" s="3"/>
       <c r="B15" s="1">
         <v>13</v>
       </c>
@@ -33734,7 +33743,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
+      <c r="A16" s="3"/>
       <c r="B16" s="1">
         <v>14</v>
       </c>
@@ -33752,7 +33761,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
+      <c r="A17" s="3"/>
       <c r="B17" s="1">
         <v>15</v>
       </c>
@@ -33770,7 +33779,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
+      <c r="A18" s="3"/>
       <c r="B18" s="1">
         <v>16</v>
       </c>
@@ -33788,7 +33797,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
+      <c r="A19" s="3"/>
       <c r="B19" s="1">
         <v>17</v>
       </c>
@@ -33806,7 +33815,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
+      <c r="A20" s="3"/>
       <c r="B20" s="1">
         <v>18</v>
       </c>
@@ -33824,7 +33833,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
+      <c r="A21" s="3"/>
       <c r="B21" s="1">
         <v>19</v>
       </c>
@@ -33836,7 +33845,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
+      <c r="A22" s="3"/>
       <c r="B22" s="1">
         <v>20</v>
       </c>
@@ -33845,7 +33854,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="2"/>
+      <c r="A23" s="3"/>
       <c r="B23" s="1">
         <v>21</v>
       </c>
@@ -33854,7 +33863,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="2"/>
+      <c r="A24" s="3"/>
       <c r="B24" s="1">
         <v>22</v>
       </c>
@@ -33863,7 +33872,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="2"/>
+      <c r="A25" s="3"/>
       <c r="B25" s="1">
         <v>23</v>
       </c>
@@ -33872,7 +33881,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
+      <c r="A26" s="3"/>
       <c r="B26" s="1">
         <v>24</v>
       </c>
@@ -33881,7 +33890,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="2"/>
+      <c r="A27" s="3"/>
       <c r="B27" s="1">
         <v>25</v>
       </c>
@@ -33890,7 +33899,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="2"/>
+      <c r="A28" s="3"/>
       <c r="B28" s="1">
         <v>26</v>
       </c>
@@ -33899,7 +33908,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="2"/>
+      <c r="A29" s="3"/>
       <c r="B29" s="1">
         <v>27</v>
       </c>
@@ -33908,7 +33917,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="2"/>
+      <c r="A30" s="3"/>
       <c r="B30" s="1">
         <v>28</v>
       </c>
@@ -33917,7 +33926,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="2"/>
+      <c r="A31" s="3"/>
       <c r="B31" s="1">
         <v>29</v>
       </c>
@@ -33926,7 +33935,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="2"/>
+      <c r="A32" s="3"/>
       <c r="B32" s="1">
         <v>30</v>
       </c>
@@ -33935,7 +33944,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="2"/>
+      <c r="A33" s="3"/>
       <c r="B33" s="1">
         <v>31</v>
       </c>
@@ -33944,7 +33953,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="2"/>
+      <c r="A34" s="3"/>
       <c r="B34" s="1">
         <v>32</v>
       </c>
@@ -33953,7 +33962,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="2"/>
+      <c r="A35" s="3"/>
       <c r="B35" s="1">
         <v>33</v>
       </c>
@@ -33962,7 +33971,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="2"/>
+      <c r="A36" s="3"/>
       <c r="B36" s="1">
         <v>34</v>
       </c>
@@ -33971,7 +33980,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="2"/>
+      <c r="A37" s="3"/>
       <c r="B37" s="1">
         <v>35</v>
       </c>
@@ -33980,7 +33989,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="2"/>
+      <c r="A38" s="3"/>
       <c r="B38" s="1">
         <v>36</v>
       </c>
@@ -33989,7 +33998,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="2"/>
+      <c r="A39" s="3"/>
       <c r="B39" s="1">
         <v>37</v>
       </c>
@@ -33998,7 +34007,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="2"/>
+      <c r="A40" s="3"/>
       <c r="B40" s="1">
         <v>38</v>
       </c>
@@ -34007,7 +34016,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="2"/>
+      <c r="A41" s="3"/>
       <c r="B41" s="1">
         <v>39</v>
       </c>
@@ -34016,7 +34025,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="2"/>
+      <c r="A42" s="3"/>
       <c r="B42" s="1">
         <v>40</v>
       </c>
@@ -34025,7 +34034,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="2"/>
+      <c r="A43" s="3"/>
       <c r="B43" s="1">
         <v>41</v>
       </c>
@@ -34034,7 +34043,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="2"/>
+      <c r="A44" s="3"/>
       <c r="B44" s="1">
         <v>42</v>
       </c>
@@ -34043,7 +34052,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="2"/>
+      <c r="A45" s="3"/>
       <c r="B45" s="1">
         <v>43</v>
       </c>
@@ -34052,7 +34061,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="2"/>
+      <c r="A46" s="3"/>
       <c r="B46" s="1">
         <v>44</v>
       </c>
@@ -34061,7 +34070,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="2"/>
+      <c r="A47" s="3"/>
       <c r="B47" s="1">
         <v>45</v>
       </c>
@@ -34070,7 +34079,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="2"/>
+      <c r="A48" s="3"/>
       <c r="B48" s="1">
         <v>46</v>
       </c>
@@ -34079,7 +34088,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" s="2"/>
+      <c r="A49" s="3"/>
       <c r="B49" s="1">
         <v>47</v>
       </c>
@@ -34088,7 +34097,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="2"/>
+      <c r="A50" s="3"/>
       <c r="B50" s="1">
         <v>48</v>
       </c>
@@ -34097,7 +34106,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="2"/>
+      <c r="A51" s="3"/>
       <c r="B51" s="1">
         <v>49</v>
       </c>
@@ -34106,7 +34115,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="2"/>
+      <c r="A52" s="3"/>
       <c r="B52" s="1">
         <v>50</v>
       </c>
@@ -34115,7 +34124,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="2"/>
+      <c r="A53" s="3"/>
       <c r="B53" s="1">
         <v>51</v>
       </c>
@@ -34124,7 +34133,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="2"/>
+      <c r="A54" s="3"/>
       <c r="B54" s="1">
         <v>52</v>
       </c>
@@ -34133,7 +34142,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" s="2"/>
+      <c r="A55" s="3"/>
       <c r="B55" s="1">
         <v>53</v>
       </c>
@@ -34142,7 +34151,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="2"/>
+      <c r="A56" s="3"/>
       <c r="B56" s="1">
         <v>54</v>
       </c>
@@ -34151,7 +34160,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="2"/>
+      <c r="A57" s="3"/>
       <c r="B57" s="1">
         <v>55</v>
       </c>
@@ -34160,7 +34169,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" s="2"/>
+      <c r="A58" s="3"/>
       <c r="B58" s="1">
         <v>56</v>
       </c>
@@ -34169,7 +34178,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="2"/>
+      <c r="A59" s="3"/>
       <c r="B59" s="1">
         <v>57</v>
       </c>
@@ -34178,7 +34187,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" s="2"/>
+      <c r="A60" s="3"/>
       <c r="B60" s="1">
         <v>58</v>
       </c>
@@ -34187,7 +34196,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="2"/>
+      <c r="A61" s="3"/>
       <c r="B61" s="1">
         <v>59</v>
       </c>
@@ -34196,7 +34205,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" s="2"/>
+      <c r="A62" s="3"/>
       <c r="B62" s="1">
         <v>60</v>
       </c>
@@ -34205,7 +34214,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" s="2"/>
+      <c r="A63" s="3"/>
       <c r="B63" s="1">
         <v>61</v>
       </c>
@@ -34214,7 +34223,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="2"/>
+      <c r="A64" s="3"/>
       <c r="B64" s="1">
         <v>62</v>
       </c>
@@ -34223,7 +34232,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" s="2"/>
+      <c r="A65" s="3"/>
       <c r="B65" s="1">
         <v>63</v>
       </c>
@@ -34232,7 +34241,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" s="2"/>
+      <c r="A66" s="3"/>
       <c r="B66" s="1">
         <v>64</v>
       </c>
@@ -34241,7 +34250,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" s="2"/>
+      <c r="A67" s="3"/>
       <c r="B67" s="1">
         <v>65</v>
       </c>
@@ -34250,7 +34259,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" s="2"/>
+      <c r="A68" s="3"/>
       <c r="B68" s="1">
         <v>66</v>
       </c>
@@ -34259,7 +34268,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" s="2"/>
+      <c r="A69" s="3"/>
       <c r="B69" s="1">
         <v>67</v>
       </c>
@@ -34268,7 +34277,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" s="2"/>
+      <c r="A70" s="3"/>
       <c r="B70" s="1">
         <v>68</v>
       </c>
@@ -34277,7 +34286,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" s="2"/>
+      <c r="A71" s="3"/>
       <c r="B71" s="1">
         <v>69</v>
       </c>
@@ -34286,7 +34295,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72" s="2"/>
+      <c r="A72" s="3"/>
       <c r="B72" s="1">
         <v>70</v>
       </c>
@@ -34295,7 +34304,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73" s="2"/>
+      <c r="A73" s="3"/>
       <c r="B73" s="1">
         <v>71</v>
       </c>
@@ -34304,7 +34313,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A74" s="2"/>
+      <c r="A74" s="3"/>
       <c r="B74" s="1">
         <v>72</v>
       </c>
@@ -34313,7 +34322,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A75" s="2"/>
+      <c r="A75" s="3"/>
       <c r="B75" s="1">
         <v>73</v>
       </c>
@@ -34322,7 +34331,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" s="2"/>
+      <c r="A76" s="3"/>
       <c r="B76" s="1">
         <v>74</v>
       </c>
@@ -34331,7 +34340,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A77" s="2"/>
+      <c r="A77" s="3"/>
       <c r="B77" s="1">
         <v>75</v>
       </c>
@@ -34340,7 +34349,7 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A78" s="2"/>
+      <c r="A78" s="3"/>
       <c r="B78" s="1">
         <v>76</v>
       </c>
@@ -34349,7 +34358,7 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A79" s="2"/>
+      <c r="A79" s="3"/>
       <c r="B79" s="1">
         <v>77</v>
       </c>
@@ -34358,7 +34367,7 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A80" s="2"/>
+      <c r="A80" s="3"/>
       <c r="B80" s="1">
         <v>78</v>
       </c>
@@ -34367,7 +34376,7 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" s="2"/>
+      <c r="A81" s="3"/>
       <c r="B81" s="1">
         <v>79</v>
       </c>
@@ -34376,7 +34385,7 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A82" s="2"/>
+      <c r="A82" s="3"/>
       <c r="B82" s="1">
         <v>80</v>
       </c>
@@ -34385,7 +34394,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A83" s="2"/>
+      <c r="A83" s="3"/>
       <c r="B83" s="1">
         <v>81</v>
       </c>
@@ -34394,7 +34403,7 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A84" s="2"/>
+      <c r="A84" s="3"/>
       <c r="B84" s="1">
         <v>82</v>
       </c>
@@ -34403,7 +34412,7 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A85" s="2"/>
+      <c r="A85" s="3"/>
       <c r="B85" s="1">
         <v>83</v>
       </c>
@@ -34412,7 +34421,7 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A86" s="2"/>
+      <c r="A86" s="3"/>
       <c r="B86" s="1">
         <v>84</v>
       </c>
@@ -34421,7 +34430,7 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A87" s="2"/>
+      <c r="A87" s="3"/>
       <c r="B87" s="1">
         <v>85</v>
       </c>
@@ -34430,7 +34439,7 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A88" s="2"/>
+      <c r="A88" s="3"/>
       <c r="B88" s="1">
         <v>86</v>
       </c>
@@ -34439,7 +34448,7 @@
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A89" s="2"/>
+      <c r="A89" s="3"/>
       <c r="B89" s="1">
         <v>87</v>
       </c>
@@ -34448,7 +34457,7 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A90" s="2"/>
+      <c r="A90" s="3"/>
       <c r="B90" s="1">
         <v>88</v>
       </c>
@@ -34457,7 +34466,7 @@
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A91" s="2"/>
+      <c r="A91" s="3"/>
       <c r="B91" s="1">
         <v>89</v>
       </c>
@@ -34466,7 +34475,7 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A92" s="2"/>
+      <c r="A92" s="3"/>
       <c r="B92" s="1">
         <v>90</v>
       </c>
@@ -34475,7 +34484,7 @@
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A93" s="2"/>
+      <c r="A93" s="3"/>
       <c r="B93" s="1">
         <v>91</v>
       </c>
@@ -34484,7 +34493,7 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A94" s="2"/>
+      <c r="A94" s="3"/>
       <c r="B94" s="1">
         <v>92</v>
       </c>
@@ -34493,7 +34502,7 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A95" s="2"/>
+      <c r="A95" s="3"/>
       <c r="B95" s="1">
         <v>93</v>
       </c>
@@ -34502,7 +34511,7 @@
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A96" s="2"/>
+      <c r="A96" s="3"/>
       <c r="B96" s="1">
         <v>94</v>
       </c>
@@ -34511,7 +34520,7 @@
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A97" s="2"/>
+      <c r="A97" s="3"/>
       <c r="B97" s="1">
         <v>95</v>
       </c>
@@ -34520,7 +34529,7 @@
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A98" s="2"/>
+      <c r="A98" s="3"/>
       <c r="B98" s="1">
         <v>96</v>
       </c>
@@ -34541,23 +34550,23 @@
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1298</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1299</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1300</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1301</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>79</v>
@@ -34578,204 +34587,207 @@
         <v>84</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>1301</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>1302</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>1303</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>1304</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>1305</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>85</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2">
-        <v>18.096774193548391</v>
+        <v>50</v>
       </c>
       <c r="C2">
-        <v>15.97894736842105</v>
-      </c>
-      <c r="D2">
-        <v>12.5</v>
-      </c>
-      <c r="E2">
-        <v>12.5</v>
+        <v>20</v>
       </c>
       <c r="F2">
-        <v>66.857142857142861</v>
+        <v>50</v>
       </c>
       <c r="G2">
-        <v>34</v>
-      </c>
-      <c r="H2">
-        <v>34</v>
-      </c>
-      <c r="I2">
-        <v>34</v>
-      </c>
-      <c r="J2">
-        <v>212.5</v>
-      </c>
-      <c r="K2">
-        <v>9.6561282333829393E-2</v>
+        <v>40</v>
       </c>
       <c r="L2">
-        <v>726.5</v>
+        <v>10</v>
       </c>
       <c r="M2">
-        <v>784</v>
-      </c>
-      <c r="N2">
-        <v>6.25</v>
-      </c>
-      <c r="O2">
-        <v>6.25</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0.1736111111111111</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3">
-        <v>54.395604395604387</v>
+        <v>200</v>
       </c>
       <c r="C3">
-        <v>80.645161290322577</v>
+        <v>144.94845360824741</v>
       </c>
       <c r="D3">
+        <v>144.94845360824741</v>
+      </c>
+      <c r="E3">
+        <v>144.94845360824741</v>
+      </c>
+      <c r="F3">
         <v>50</v>
       </c>
-      <c r="E3">
-        <v>20</v>
-      </c>
-      <c r="F3">
-        <v>60.5</v>
-      </c>
-      <c r="G3">
-        <v>10.666666666666661</v>
-      </c>
       <c r="H3">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I3">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="J3">
-        <v>8955</v>
+        <v>210900</v>
       </c>
       <c r="K3">
-        <v>4.0692060390561986</v>
+        <v>95.834232678609979</v>
       </c>
       <c r="L3">
-        <v>3575</v>
+        <v>3515</v>
       </c>
       <c r="M3">
-        <v>2275</v>
+        <v>4850</v>
       </c>
       <c r="N3">
-        <v>45</v>
+        <v>3515</v>
       </c>
       <c r="O3">
-        <v>112.5</v>
+        <v>3515</v>
       </c>
       <c r="P3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>2.1875</v>
+        <v>97.638888888888886</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4">
-        <v>50</v>
+        <v>18.096774193548391</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>15.97894736842105</v>
+      </c>
+      <c r="D4">
+        <v>12.5</v>
+      </c>
+      <c r="E4">
+        <v>12.5</v>
       </c>
       <c r="F4">
-        <v>50</v>
+        <v>66.857142857142861</v>
       </c>
       <c r="G4">
-        <v>40</v>
+        <v>34</v>
+      </c>
+      <c r="H4">
+        <v>34</v>
+      </c>
+      <c r="I4">
+        <v>34</v>
+      </c>
+      <c r="J4">
+        <v>212.5</v>
+      </c>
+      <c r="K4">
+        <v>9.6561282333829393E-2</v>
       </c>
       <c r="L4">
-        <v>10</v>
+        <v>726.5</v>
       </c>
       <c r="M4">
-        <v>25</v>
+        <v>784</v>
+      </c>
+      <c r="N4">
+        <v>6.25</v>
+      </c>
+      <c r="O4">
+        <v>6.25</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.1736111111111111</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B5">
-        <v>200</v>
+        <v>54.395604395604387</v>
       </c>
       <c r="C5">
-        <v>144.94845360824741</v>
+        <v>80.645161290322577</v>
       </c>
       <c r="D5">
-        <v>144.94845360824741</v>
+        <v>50</v>
       </c>
       <c r="E5">
-        <v>144.94845360824741</v>
+        <v>20</v>
       </c>
       <c r="F5">
-        <v>50</v>
+        <v>60.5</v>
+      </c>
+      <c r="G5">
+        <v>10.666666666666661</v>
       </c>
       <c r="H5">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I5">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="J5">
-        <v>210900</v>
+        <v>8955</v>
       </c>
       <c r="K5">
-        <v>95.834232678609979</v>
+        <v>4.0692060390561986</v>
       </c>
       <c r="L5">
-        <v>3515</v>
+        <v>3575</v>
       </c>
       <c r="M5">
-        <v>4850</v>
+        <v>2275</v>
       </c>
       <c r="N5">
-        <v>3515</v>
+        <v>45</v>
       </c>
       <c r="O5">
-        <v>3515</v>
+        <v>112.5</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Q5">
-        <v>97.638888888888886</v>
+        <v>2.1875</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:Q5">
+    <sortCondition ref="A2:A5"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -34823,7 +34835,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>3</v>
       </c>
       <c r="B3" s="1">
@@ -34840,7 +34852,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
+      <c r="A4" s="3"/>
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -34855,7 +34867,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
+      <c r="A5" s="3"/>
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -34870,7 +34882,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
+      <c r="A6" s="3"/>
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -34885,7 +34897,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
+      <c r="A7" s="3"/>
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -34900,7 +34912,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
+      <c r="A8" s="3"/>
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -34915,7 +34927,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
+      <c r="A9" s="3"/>
       <c r="B9" s="1">
         <v>7</v>
       </c>
@@ -34930,7 +34942,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
+      <c r="A10" s="3"/>
       <c r="B10" s="1">
         <v>8</v>
       </c>
@@ -34945,7 +34957,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
+      <c r="A11" s="3"/>
       <c r="B11" s="1">
         <v>9</v>
       </c>
@@ -34960,7 +34972,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
+      <c r="A12" s="3"/>
       <c r="B12" s="1">
         <v>10</v>
       </c>
@@ -34975,7 +34987,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
+      <c r="A13" s="3"/>
       <c r="B13" s="1">
         <v>11</v>
       </c>
@@ -34990,7 +35002,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
+      <c r="A14" s="3"/>
       <c r="B14" s="1">
         <v>12</v>
       </c>
@@ -35005,7 +35017,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
+      <c r="A15" s="3"/>
       <c r="B15" s="1">
         <v>13</v>
       </c>
@@ -35020,7 +35032,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
+      <c r="A16" s="3"/>
       <c r="B16" s="1">
         <v>14</v>
       </c>
@@ -35035,7 +35047,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
+      <c r="A17" s="3"/>
       <c r="B17" s="1">
         <v>15</v>
       </c>
@@ -35050,7 +35062,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
+      <c r="A18" s="3"/>
       <c r="B18" s="1">
         <v>16</v>
       </c>
@@ -35065,7 +35077,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
+      <c r="A19" s="3"/>
       <c r="B19" s="1">
         <v>17</v>
       </c>
@@ -35080,7 +35092,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
+      <c r="A20" s="3"/>
       <c r="B20" s="1">
         <v>18</v>
       </c>
@@ -35095,7 +35107,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
+      <c r="A21" s="3"/>
       <c r="B21" s="1">
         <v>19</v>
       </c>
@@ -35110,7 +35122,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
+      <c r="A22" s="3"/>
       <c r="B22" s="1">
         <v>20</v>
       </c>
@@ -35125,7 +35137,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="2"/>
+      <c r="A23" s="3"/>
       <c r="B23" s="1">
         <v>21</v>
       </c>
@@ -35140,7 +35152,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="2"/>
+      <c r="A24" s="3"/>
       <c r="B24" s="1">
         <v>22</v>
       </c>
@@ -35155,7 +35167,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="2"/>
+      <c r="A25" s="3"/>
       <c r="B25" s="1">
         <v>23</v>
       </c>
@@ -35170,7 +35182,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
+      <c r="A26" s="3"/>
       <c r="B26" s="1">
         <v>24</v>
       </c>
@@ -35185,7 +35197,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="2"/>
+      <c r="A27" s="3"/>
       <c r="B27" s="1">
         <v>25</v>
       </c>
@@ -35200,7 +35212,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="2"/>
+      <c r="A28" s="3"/>
       <c r="B28" s="1">
         <v>26</v>
       </c>
@@ -35215,7 +35227,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="2"/>
+      <c r="A29" s="3"/>
       <c r="B29" s="1">
         <v>27</v>
       </c>
@@ -35230,7 +35242,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="2"/>
+      <c r="A30" s="3"/>
       <c r="B30" s="1">
         <v>28</v>
       </c>
@@ -35245,7 +35257,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="2"/>
+      <c r="A31" s="3"/>
       <c r="B31" s="1">
         <v>29</v>
       </c>
@@ -35260,7 +35272,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="2"/>
+      <c r="A32" s="3"/>
       <c r="B32" s="1">
         <v>30</v>
       </c>
@@ -35275,7 +35287,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="2"/>
+      <c r="A33" s="3"/>
       <c r="B33" s="1">
         <v>31</v>
       </c>
@@ -35290,7 +35302,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="2"/>
+      <c r="A34" s="3"/>
       <c r="B34" s="1">
         <v>32</v>
       </c>
@@ -35305,7 +35317,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="2"/>
+      <c r="A35" s="3"/>
       <c r="B35" s="1">
         <v>33</v>
       </c>
@@ -35320,7 +35332,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="2"/>
+      <c r="A36" s="3"/>
       <c r="B36" s="1">
         <v>34</v>
       </c>
@@ -35335,7 +35347,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="2"/>
+      <c r="A37" s="3"/>
       <c r="B37" s="1">
         <v>35</v>
       </c>
@@ -35350,7 +35362,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="2"/>
+      <c r="A38" s="3"/>
       <c r="B38" s="1">
         <v>36</v>
       </c>
@@ -35365,7 +35377,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="2"/>
+      <c r="A39" s="3"/>
       <c r="B39" s="1">
         <v>37</v>
       </c>
@@ -35380,7 +35392,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="2"/>
+      <c r="A40" s="3"/>
       <c r="B40" s="1">
         <v>38</v>
       </c>
@@ -35395,7 +35407,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="2"/>
+      <c r="A41" s="3"/>
       <c r="B41" s="1">
         <v>39</v>
       </c>
@@ -35410,7 +35422,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="2"/>
+      <c r="A42" s="3"/>
       <c r="B42" s="1">
         <v>40</v>
       </c>
@@ -35425,7 +35437,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="2"/>
+      <c r="A43" s="3"/>
       <c r="B43" s="1">
         <v>41</v>
       </c>
@@ -35440,7 +35452,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="2"/>
+      <c r="A44" s="3"/>
       <c r="B44" s="1">
         <v>42</v>
       </c>
@@ -35455,7 +35467,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="2"/>
+      <c r="A45" s="3"/>
       <c r="B45" s="1">
         <v>43</v>
       </c>
@@ -35470,7 +35482,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="2"/>
+      <c r="A46" s="3"/>
       <c r="B46" s="1">
         <v>44</v>
       </c>
@@ -35485,7 +35497,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="2"/>
+      <c r="A47" s="3"/>
       <c r="B47" s="1">
         <v>45</v>
       </c>
@@ -35500,7 +35512,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="2"/>
+      <c r="A48" s="3"/>
       <c r="B48" s="1">
         <v>46</v>
       </c>
@@ -35515,7 +35527,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="2"/>
+      <c r="A49" s="3"/>
       <c r="B49" s="1">
         <v>47</v>
       </c>
@@ -35530,7 +35542,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="2"/>
+      <c r="A50" s="3"/>
       <c r="B50" s="1">
         <v>48</v>
       </c>
@@ -35545,7 +35557,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="2"/>
+      <c r="A51" s="3"/>
       <c r="B51" s="1">
         <v>49</v>
       </c>
@@ -35560,7 +35572,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="2"/>
+      <c r="A52" s="3"/>
       <c r="B52" s="1">
         <v>50</v>
       </c>
@@ -35575,7 +35587,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="2"/>
+      <c r="A53" s="3"/>
       <c r="B53" s="1">
         <v>51</v>
       </c>
@@ -35590,7 +35602,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="2"/>
+      <c r="A54" s="3"/>
       <c r="B54" s="1">
         <v>52</v>
       </c>
@@ -35605,7 +35617,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="2"/>
+      <c r="A55" s="3"/>
       <c r="B55" s="1">
         <v>53</v>
       </c>
@@ -35620,7 +35632,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" s="2"/>
+      <c r="A56" s="3"/>
       <c r="B56" s="1">
         <v>54</v>
       </c>
@@ -35635,7 +35647,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="2"/>
+      <c r="A57" s="3"/>
       <c r="B57" s="1">
         <v>55</v>
       </c>
@@ -35650,7 +35662,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" s="2"/>
+      <c r="A58" s="3"/>
       <c r="B58" s="1">
         <v>56</v>
       </c>
@@ -35665,7 +35677,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="2"/>
+      <c r="A59" s="3"/>
       <c r="B59" s="1">
         <v>57</v>
       </c>
@@ -35680,7 +35692,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="2"/>
+      <c r="A60" s="3"/>
       <c r="B60" s="1">
         <v>58</v>
       </c>
@@ -35695,7 +35707,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" s="2"/>
+      <c r="A61" s="3"/>
       <c r="B61" s="1">
         <v>59</v>
       </c>
@@ -35710,7 +35722,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="2"/>
+      <c r="A62" s="3"/>
       <c r="B62" s="1">
         <v>60</v>
       </c>
@@ -35725,7 +35737,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" s="2"/>
+      <c r="A63" s="3"/>
       <c r="B63" s="1">
         <v>61</v>
       </c>
@@ -35740,7 +35752,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="2"/>
+      <c r="A64" s="3"/>
       <c r="B64" s="1">
         <v>62</v>
       </c>
@@ -35755,7 +35767,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A65" s="2"/>
+      <c r="A65" s="3"/>
       <c r="B65" s="1">
         <v>63</v>
       </c>
@@ -35770,7 +35782,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" s="2"/>
+      <c r="A66" s="3"/>
       <c r="B66" s="1">
         <v>64</v>
       </c>
@@ -35785,7 +35797,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67" s="2"/>
+      <c r="A67" s="3"/>
       <c r="B67" s="1">
         <v>65</v>
       </c>
@@ -35800,7 +35812,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" s="2"/>
+      <c r="A68" s="3"/>
       <c r="B68" s="1">
         <v>66</v>
       </c>
@@ -35815,7 +35827,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69" s="2"/>
+      <c r="A69" s="3"/>
       <c r="B69" s="1">
         <v>67</v>
       </c>
@@ -35830,7 +35842,7 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70" s="2"/>
+      <c r="A70" s="3"/>
       <c r="B70" s="1">
         <v>68</v>
       </c>
@@ -35845,7 +35857,7 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" s="2"/>
+      <c r="A71" s="3"/>
       <c r="B71" s="1">
         <v>69</v>
       </c>
@@ -35860,7 +35872,7 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A72" s="2"/>
+      <c r="A72" s="3"/>
       <c r="B72" s="1">
         <v>70</v>
       </c>
@@ -35875,7 +35887,7 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A73" s="2"/>
+      <c r="A73" s="3"/>
       <c r="B73" s="1">
         <v>71</v>
       </c>
@@ -35890,7 +35902,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" s="2"/>
+      <c r="A74" s="3"/>
       <c r="B74" s="1">
         <v>72</v>
       </c>
@@ -35905,7 +35917,7 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75" s="2"/>
+      <c r="A75" s="3"/>
       <c r="B75" s="1">
         <v>73</v>
       </c>
@@ -35920,7 +35932,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A76" s="2"/>
+      <c r="A76" s="3"/>
       <c r="B76" s="1">
         <v>74</v>
       </c>
@@ -35935,7 +35947,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" s="2"/>
+      <c r="A77" s="3"/>
       <c r="B77" s="1">
         <v>75</v>
       </c>
@@ -35950,7 +35962,7 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" s="2"/>
+      <c r="A78" s="3"/>
       <c r="B78" s="1">
         <v>76</v>
       </c>
@@ -35965,7 +35977,7 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" s="2"/>
+      <c r="A79" s="3"/>
       <c r="B79" s="1">
         <v>77</v>
       </c>
@@ -35980,7 +35992,7 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A80" s="2"/>
+      <c r="A80" s="3"/>
       <c r="B80" s="1">
         <v>78</v>
       </c>
@@ -35995,7 +36007,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A81" s="2"/>
+      <c r="A81" s="3"/>
       <c r="B81" s="1">
         <v>79</v>
       </c>
@@ -36010,7 +36022,7 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A82" s="2"/>
+      <c r="A82" s="3"/>
       <c r="B82" s="1">
         <v>80</v>
       </c>
@@ -36025,7 +36037,7 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A83" s="2"/>
+      <c r="A83" s="3"/>
       <c r="B83" s="1">
         <v>81</v>
       </c>
@@ -36040,7 +36052,7 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A84" s="2"/>
+      <c r="A84" s="3"/>
       <c r="B84" s="1">
         <v>82</v>
       </c>
@@ -36055,7 +36067,7 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A85" s="2"/>
+      <c r="A85" s="3"/>
       <c r="B85" s="1">
         <v>83</v>
       </c>
@@ -36070,7 +36082,7 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A86" s="2"/>
+      <c r="A86" s="3"/>
       <c r="B86" s="1">
         <v>84</v>
       </c>
@@ -36085,7 +36097,7 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A87" s="2"/>
+      <c r="A87" s="3"/>
       <c r="B87" s="1">
         <v>85</v>
       </c>
@@ -36100,7 +36112,7 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A88" s="2"/>
+      <c r="A88" s="3"/>
       <c r="B88" s="1">
         <v>86</v>
       </c>
@@ -36115,7 +36127,7 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A89" s="2"/>
+      <c r="A89" s="3"/>
       <c r="B89" s="1">
         <v>87</v>
       </c>
@@ -36130,7 +36142,7 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A90" s="2"/>
+      <c r="A90" s="3"/>
       <c r="B90" s="1">
         <v>88</v>
       </c>
@@ -36145,7 +36157,7 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A91" s="2"/>
+      <c r="A91" s="3"/>
       <c r="B91" s="1">
         <v>89</v>
       </c>
@@ -36160,7 +36172,7 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A92" s="2"/>
+      <c r="A92" s="3"/>
       <c r="B92" s="1">
         <v>90</v>
       </c>
@@ -36175,7 +36187,7 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A93" s="2"/>
+      <c r="A93" s="3"/>
       <c r="B93" s="1">
         <v>91</v>
       </c>
@@ -36190,7 +36202,7 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A94" s="2"/>
+      <c r="A94" s="3"/>
       <c r="B94" s="1">
         <v>92</v>
       </c>
@@ -36205,7 +36217,7 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A95" s="2"/>
+      <c r="A95" s="3"/>
       <c r="B95" s="1">
         <v>93</v>
       </c>
@@ -36220,7 +36232,7 @@
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A96" s="2"/>
+      <c r="A96" s="3"/>
       <c r="B96" s="1">
         <v>94</v>
       </c>
@@ -36235,7 +36247,7 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A97" s="2"/>
+      <c r="A97" s="3"/>
       <c r="B97" s="1">
         <v>95</v>
       </c>
@@ -36250,7 +36262,7 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A98" s="2"/>
+      <c r="A98" s="3"/>
       <c r="B98" s="1">
         <v>96</v>
       </c>
@@ -36282,24 +36294,24 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B2" s="1"/>
@@ -36405,7 +36417,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="1">
@@ -36455,7 +36467,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
+      <c r="A6" s="3"/>
       <c r="B6" s="1">
         <v>2</v>
       </c>
@@ -36503,7 +36515,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
+      <c r="A7" s="3"/>
       <c r="B7" s="1">
         <v>3</v>
       </c>
@@ -36551,7 +36563,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
+      <c r="A8" s="3"/>
       <c r="B8" s="1">
         <v>4</v>
       </c>
@@ -36599,7 +36611,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
+      <c r="A9" s="3"/>
       <c r="B9" s="1">
         <v>5</v>
       </c>
@@ -36647,7 +36659,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
+      <c r="A10" s="3"/>
       <c r="B10" s="1">
         <v>6</v>
       </c>
@@ -36695,7 +36707,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
+      <c r="A11" s="3"/>
       <c r="B11" s="1">
         <v>7</v>
       </c>
@@ -36743,7 +36755,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
+      <c r="A12" s="3"/>
       <c r="B12" s="1">
         <v>8</v>
       </c>
@@ -36791,7 +36803,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
+      <c r="A13" s="3"/>
       <c r="B13" s="1">
         <v>9</v>
       </c>
@@ -36839,7 +36851,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
+      <c r="A14" s="3"/>
       <c r="B14" s="1">
         <v>10</v>
       </c>
@@ -36887,7 +36899,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
+      <c r="A15" s="3"/>
       <c r="B15" s="1">
         <v>11</v>
       </c>
@@ -36935,7 +36947,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
+      <c r="A16" s="3"/>
       <c r="B16" s="1">
         <v>12</v>
       </c>
@@ -36983,7 +36995,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
+      <c r="A17" s="3"/>
       <c r="B17" s="1">
         <v>13</v>
       </c>
@@ -37031,7 +37043,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
+      <c r="A18" s="3"/>
       <c r="B18" s="1">
         <v>14</v>
       </c>
@@ -37079,7 +37091,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
+      <c r="A19" s="3"/>
       <c r="B19" s="1">
         <v>15</v>
       </c>
@@ -37127,7 +37139,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
+      <c r="A20" s="3"/>
       <c r="B20" s="1">
         <v>16</v>
       </c>
@@ -37175,7 +37187,7 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
+      <c r="A21" s="3"/>
       <c r="B21" s="1">
         <v>17</v>
       </c>
@@ -37223,7 +37235,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
+      <c r="A22" s="3"/>
       <c r="B22" s="1">
         <v>18</v>
       </c>
@@ -37271,7 +37283,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A23" s="2"/>
+      <c r="A23" s="3"/>
       <c r="B23" s="1">
         <v>19</v>
       </c>
@@ -37319,7 +37331,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A24" s="2"/>
+      <c r="A24" s="3"/>
       <c r="B24" s="1">
         <v>20</v>
       </c>
@@ -37367,7 +37379,7 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A25" s="2"/>
+      <c r="A25" s="3"/>
       <c r="B25" s="1">
         <v>21</v>
       </c>
@@ -37415,7 +37427,7 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
+      <c r="A26" s="3"/>
       <c r="B26" s="1">
         <v>22</v>
       </c>
@@ -37463,7 +37475,7 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A27" s="2"/>
+      <c r="A27" s="3"/>
       <c r="B27" s="1">
         <v>23</v>
       </c>
@@ -37511,7 +37523,7 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A28" s="2"/>
+      <c r="A28" s="3"/>
       <c r="B28" s="1">
         <v>24</v>
       </c>
@@ -37559,7 +37571,7 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A29" s="2"/>
+      <c r="A29" s="3"/>
       <c r="B29" s="1">
         <v>25</v>
       </c>
@@ -37607,7 +37619,7 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A30" s="2"/>
+      <c r="A30" s="3"/>
       <c r="B30" s="1">
         <v>26</v>
       </c>
@@ -37655,7 +37667,7 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A31" s="2"/>
+      <c r="A31" s="3"/>
       <c r="B31" s="1">
         <v>27</v>
       </c>
@@ -37703,7 +37715,7 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A32" s="2"/>
+      <c r="A32" s="3"/>
       <c r="B32" s="1">
         <v>28</v>
       </c>
@@ -37751,7 +37763,7 @@
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A33" s="2"/>
+      <c r="A33" s="3"/>
       <c r="B33" s="1">
         <v>29</v>
       </c>
@@ -37799,7 +37811,7 @@
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A34" s="2"/>
+      <c r="A34" s="3"/>
       <c r="B34" s="1">
         <v>30</v>
       </c>
@@ -37847,7 +37859,7 @@
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A35" s="2"/>
+      <c r="A35" s="3"/>
       <c r="B35" s="1">
         <v>31</v>
       </c>
@@ -37895,7 +37907,7 @@
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A36" s="2"/>
+      <c r="A36" s="3"/>
       <c r="B36" s="1">
         <v>32</v>
       </c>
@@ -37943,7 +37955,7 @@
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A37" s="2"/>
+      <c r="A37" s="3"/>
       <c r="B37" s="1">
         <v>33</v>
       </c>
@@ -37991,7 +38003,7 @@
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A38" s="2"/>
+      <c r="A38" s="3"/>
       <c r="B38" s="1">
         <v>34</v>
       </c>
@@ -38039,7 +38051,7 @@
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A39" s="2"/>
+      <c r="A39" s="3"/>
       <c r="B39" s="1">
         <v>35</v>
       </c>
@@ -38087,7 +38099,7 @@
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A40" s="2"/>
+      <c r="A40" s="3"/>
       <c r="B40" s="1">
         <v>36</v>
       </c>
@@ -38135,7 +38147,7 @@
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A41" s="2"/>
+      <c r="A41" s="3"/>
       <c r="B41" s="1">
         <v>37</v>
       </c>
@@ -38183,7 +38195,7 @@
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A42" s="2"/>
+      <c r="A42" s="3"/>
       <c r="B42" s="1">
         <v>38</v>
       </c>
@@ -38231,7 +38243,7 @@
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A43" s="2"/>
+      <c r="A43" s="3"/>
       <c r="B43" s="1">
         <v>39</v>
       </c>
@@ -38279,7 +38291,7 @@
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A44" s="2"/>
+      <c r="A44" s="3"/>
       <c r="B44" s="1">
         <v>40</v>
       </c>
@@ -38327,7 +38339,7 @@
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A45" s="2"/>
+      <c r="A45" s="3"/>
       <c r="B45" s="1">
         <v>41</v>
       </c>
@@ -38375,7 +38387,7 @@
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A46" s="2"/>
+      <c r="A46" s="3"/>
       <c r="B46" s="1">
         <v>42</v>
       </c>
@@ -38423,7 +38435,7 @@
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A47" s="2"/>
+      <c r="A47" s="3"/>
       <c r="B47" s="1">
         <v>43</v>
       </c>
@@ -38471,7 +38483,7 @@
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A48" s="2"/>
+      <c r="A48" s="3"/>
       <c r="B48" s="1">
         <v>44</v>
       </c>
@@ -38519,7 +38531,7 @@
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A49" s="2"/>
+      <c r="A49" s="3"/>
       <c r="B49" s="1">
         <v>45</v>
       </c>
@@ -38567,7 +38579,7 @@
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A50" s="2"/>
+      <c r="A50" s="3"/>
       <c r="B50" s="1">
         <v>46</v>
       </c>
@@ -38615,7 +38627,7 @@
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A51" s="2"/>
+      <c r="A51" s="3"/>
       <c r="B51" s="1">
         <v>47</v>
       </c>
@@ -38663,7 +38675,7 @@
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A52" s="2"/>
+      <c r="A52" s="3"/>
       <c r="B52" s="1">
         <v>48</v>
       </c>
@@ -38711,7 +38723,7 @@
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A53" s="2"/>
+      <c r="A53" s="3"/>
       <c r="B53" s="1">
         <v>49</v>
       </c>
@@ -38759,7 +38771,7 @@
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A54" s="2"/>
+      <c r="A54" s="3"/>
       <c r="B54" s="1">
         <v>50</v>
       </c>
@@ -38807,7 +38819,7 @@
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A55" s="2"/>
+      <c r="A55" s="3"/>
       <c r="B55" s="1">
         <v>51</v>
       </c>
@@ -38855,7 +38867,7 @@
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A56" s="2"/>
+      <c r="A56" s="3"/>
       <c r="B56" s="1">
         <v>52</v>
       </c>
@@ -38903,7 +38915,7 @@
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A57" s="2"/>
+      <c r="A57" s="3"/>
       <c r="B57" s="1">
         <v>53</v>
       </c>
@@ -38951,7 +38963,7 @@
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A58" s="2"/>
+      <c r="A58" s="3"/>
       <c r="B58" s="1">
         <v>54</v>
       </c>
@@ -38999,7 +39011,7 @@
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A59" s="2"/>
+      <c r="A59" s="3"/>
       <c r="B59" s="1">
         <v>55</v>
       </c>
@@ -39047,7 +39059,7 @@
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A60" s="2"/>
+      <c r="A60" s="3"/>
       <c r="B60" s="1">
         <v>56</v>
       </c>
@@ -39095,7 +39107,7 @@
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A61" s="2"/>
+      <c r="A61" s="3"/>
       <c r="B61" s="1">
         <v>57</v>
       </c>
@@ -39143,7 +39155,7 @@
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A62" s="2"/>
+      <c r="A62" s="3"/>
       <c r="B62" s="1">
         <v>58</v>
       </c>
@@ -39191,7 +39203,7 @@
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A63" s="2"/>
+      <c r="A63" s="3"/>
       <c r="B63" s="1">
         <v>59</v>
       </c>
@@ -39239,7 +39251,7 @@
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A64" s="2"/>
+      <c r="A64" s="3"/>
       <c r="B64" s="1">
         <v>60</v>
       </c>
@@ -39287,7 +39299,7 @@
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A65" s="2"/>
+      <c r="A65" s="3"/>
       <c r="B65" s="1">
         <v>61</v>
       </c>
@@ -39335,7 +39347,7 @@
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A66" s="2"/>
+      <c r="A66" s="3"/>
       <c r="B66" s="1">
         <v>62</v>
       </c>
@@ -39383,7 +39395,7 @@
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A67" s="2"/>
+      <c r="A67" s="3"/>
       <c r="B67" s="1">
         <v>63</v>
       </c>
@@ -39431,7 +39443,7 @@
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A68" s="2"/>
+      <c r="A68" s="3"/>
       <c r="B68" s="1">
         <v>64</v>
       </c>
@@ -39479,7 +39491,7 @@
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A69" s="2"/>
+      <c r="A69" s="3"/>
       <c r="B69" s="1">
         <v>65</v>
       </c>
@@ -39527,7 +39539,7 @@
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A70" s="2"/>
+      <c r="A70" s="3"/>
       <c r="B70" s="1">
         <v>66</v>
       </c>
@@ -39575,7 +39587,7 @@
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A71" s="2"/>
+      <c r="A71" s="3"/>
       <c r="B71" s="1">
         <v>67</v>
       </c>
@@ -39623,7 +39635,7 @@
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A72" s="2"/>
+      <c r="A72" s="3"/>
       <c r="B72" s="1">
         <v>68</v>
       </c>
@@ -39671,7 +39683,7 @@
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A73" s="2"/>
+      <c r="A73" s="3"/>
       <c r="B73" s="1">
         <v>69</v>
       </c>
@@ -39719,7 +39731,7 @@
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A74" s="2"/>
+      <c r="A74" s="3"/>
       <c r="B74" s="1">
         <v>70</v>
       </c>
@@ -39767,7 +39779,7 @@
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A75" s="2"/>
+      <c r="A75" s="3"/>
       <c r="B75" s="1">
         <v>71</v>
       </c>
@@ -39815,7 +39827,7 @@
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A76" s="2"/>
+      <c r="A76" s="3"/>
       <c r="B76" s="1">
         <v>72</v>
       </c>
@@ -39863,7 +39875,7 @@
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A77" s="2"/>
+      <c r="A77" s="3"/>
       <c r="B77" s="1">
         <v>73</v>
       </c>
@@ -39911,7 +39923,7 @@
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A78" s="2"/>
+      <c r="A78" s="3"/>
       <c r="B78" s="1">
         <v>74</v>
       </c>
@@ -39959,7 +39971,7 @@
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A79" s="2"/>
+      <c r="A79" s="3"/>
       <c r="B79" s="1">
         <v>75</v>
       </c>
@@ -40007,7 +40019,7 @@
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A80" s="2"/>
+      <c r="A80" s="3"/>
       <c r="B80" s="1">
         <v>76</v>
       </c>
@@ -40055,7 +40067,7 @@
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A81" s="2"/>
+      <c r="A81" s="3"/>
       <c r="B81" s="1">
         <v>77</v>
       </c>
@@ -40103,7 +40115,7 @@
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A82" s="2"/>
+      <c r="A82" s="3"/>
       <c r="B82" s="1">
         <v>78</v>
       </c>
@@ -40151,7 +40163,7 @@
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A83" s="2"/>
+      <c r="A83" s="3"/>
       <c r="B83" s="1">
         <v>79</v>
       </c>
@@ -40199,7 +40211,7 @@
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A84" s="2"/>
+      <c r="A84" s="3"/>
       <c r="B84" s="1">
         <v>80</v>
       </c>
@@ -40247,7 +40259,7 @@
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A85" s="2"/>
+      <c r="A85" s="3"/>
       <c r="B85" s="1">
         <v>81</v>
       </c>
@@ -40295,7 +40307,7 @@
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A86" s="2"/>
+      <c r="A86" s="3"/>
       <c r="B86" s="1">
         <v>82</v>
       </c>
@@ -40343,7 +40355,7 @@
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A87" s="2"/>
+      <c r="A87" s="3"/>
       <c r="B87" s="1">
         <v>83</v>
       </c>
@@ -40391,7 +40403,7 @@
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A88" s="2"/>
+      <c r="A88" s="3"/>
       <c r="B88" s="1">
         <v>84</v>
       </c>
@@ -40439,7 +40451,7 @@
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A89" s="2"/>
+      <c r="A89" s="3"/>
       <c r="B89" s="1">
         <v>85</v>
       </c>
@@ -40487,7 +40499,7 @@
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A90" s="2"/>
+      <c r="A90" s="3"/>
       <c r="B90" s="1">
         <v>86</v>
       </c>
@@ -40535,7 +40547,7 @@
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A91" s="2"/>
+      <c r="A91" s="3"/>
       <c r="B91" s="1">
         <v>87</v>
       </c>
@@ -40583,7 +40595,7 @@
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A92" s="2"/>
+      <c r="A92" s="3"/>
       <c r="B92" s="1">
         <v>88</v>
       </c>
@@ -40631,7 +40643,7 @@
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A93" s="2"/>
+      <c r="A93" s="3"/>
       <c r="B93" s="1">
         <v>89</v>
       </c>
@@ -40679,7 +40691,7 @@
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A94" s="2"/>
+      <c r="A94" s="3"/>
       <c r="B94" s="1">
         <v>90</v>
       </c>
@@ -40727,7 +40739,7 @@
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A95" s="2"/>
+      <c r="A95" s="3"/>
       <c r="B95" s="1">
         <v>91</v>
       </c>
@@ -40775,7 +40787,7 @@
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A96" s="2"/>
+      <c r="A96" s="3"/>
       <c r="B96" s="1">
         <v>92</v>
       </c>
@@ -40823,7 +40835,7 @@
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A97" s="2"/>
+      <c r="A97" s="3"/>
       <c r="B97" s="1">
         <v>93</v>
       </c>
@@ -40871,7 +40883,7 @@
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A98" s="2"/>
+      <c r="A98" s="3"/>
       <c r="B98" s="1">
         <v>94</v>
       </c>
@@ -40919,7 +40931,7 @@
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A99" s="2"/>
+      <c r="A99" s="3"/>
       <c r="B99" s="1">
         <v>95</v>
       </c>
@@ -40967,7 +40979,7 @@
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A100" s="2"/>
+      <c r="A100" s="3"/>
       <c r="B100" s="1">
         <v>96</v>
       </c>
@@ -41034,26 +41046,26 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B2" s="1"/>
@@ -41153,7 +41165,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="1">
@@ -41191,7 +41203,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
+      <c r="A6" s="3"/>
       <c r="B6" s="1">
         <v>2</v>
       </c>
@@ -41221,7 +41233,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
+      <c r="A7" s="3"/>
       <c r="B7" s="1">
         <v>3</v>
       </c>
@@ -41251,7 +41263,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
+      <c r="A8" s="3"/>
       <c r="B8" s="1">
         <v>4</v>
       </c>
@@ -41281,7 +41293,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
+      <c r="A9" s="3"/>
       <c r="B9" s="1">
         <v>5</v>
       </c>
@@ -41311,7 +41323,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
+      <c r="A10" s="3"/>
       <c r="B10" s="1">
         <v>6</v>
       </c>
@@ -41341,7 +41353,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
+      <c r="A11" s="3"/>
       <c r="B11" s="1">
         <v>7</v>
       </c>
@@ -41371,7 +41383,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
+      <c r="A12" s="3"/>
       <c r="B12" s="1">
         <v>8</v>
       </c>
@@ -41401,7 +41413,7 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
+      <c r="A13" s="3"/>
       <c r="B13" s="1">
         <v>9</v>
       </c>
@@ -41437,7 +41449,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
+      <c r="A14" s="3"/>
       <c r="B14" s="1">
         <v>10</v>
       </c>
@@ -41473,7 +41485,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
+      <c r="A15" s="3"/>
       <c r="B15" s="1">
         <v>11</v>
       </c>
@@ -41509,7 +41521,7 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
+      <c r="A16" s="3"/>
       <c r="B16" s="1">
         <v>12</v>
       </c>
@@ -41545,7 +41557,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
+      <c r="A17" s="3"/>
       <c r="B17" s="1">
         <v>13</v>
       </c>
@@ -41581,7 +41593,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
+      <c r="A18" s="3"/>
       <c r="B18" s="1">
         <v>14</v>
       </c>
@@ -41617,7 +41629,7 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
+      <c r="A19" s="3"/>
       <c r="B19" s="1">
         <v>15</v>
       </c>
@@ -41653,7 +41665,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
+      <c r="A20" s="3"/>
       <c r="B20" s="1">
         <v>16</v>
       </c>
@@ -41689,7 +41701,7 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
+      <c r="A21" s="3"/>
       <c r="B21" s="1">
         <v>17</v>
       </c>
@@ -41725,7 +41737,7 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
+      <c r="A22" s="3"/>
       <c r="B22" s="1">
         <v>18</v>
       </c>
@@ -41761,7 +41773,7 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A23" s="2"/>
+      <c r="A23" s="3"/>
       <c r="B23" s="1">
         <v>19</v>
       </c>
@@ -41797,7 +41809,7 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A24" s="2"/>
+      <c r="A24" s="3"/>
       <c r="B24" s="1">
         <v>20</v>
       </c>
@@ -41827,7 +41839,7 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A25" s="2"/>
+      <c r="A25" s="3"/>
       <c r="B25" s="1">
         <v>21</v>
       </c>
@@ -41857,7 +41869,7 @@
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
+      <c r="A26" s="3"/>
       <c r="B26" s="1">
         <v>22</v>
       </c>
@@ -41887,7 +41899,7 @@
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A27" s="2"/>
+      <c r="A27" s="3"/>
       <c r="B27" s="1">
         <v>23</v>
       </c>
@@ -41917,7 +41929,7 @@
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A28" s="2"/>
+      <c r="A28" s="3"/>
       <c r="B28" s="1">
         <v>24</v>
       </c>
@@ -41947,7 +41959,7 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A29" s="2"/>
+      <c r="A29" s="3"/>
       <c r="B29" s="1">
         <v>25</v>
       </c>
@@ -41977,7 +41989,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A30" s="2"/>
+      <c r="A30" s="3"/>
       <c r="B30" s="1">
         <v>26</v>
       </c>
@@ -42007,7 +42019,7 @@
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A31" s="2"/>
+      <c r="A31" s="3"/>
       <c r="B31" s="1">
         <v>27</v>
       </c>
@@ -42037,7 +42049,7 @@
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A32" s="2"/>
+      <c r="A32" s="3"/>
       <c r="B32" s="1">
         <v>28</v>
       </c>
@@ -42067,7 +42079,7 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A33" s="2"/>
+      <c r="A33" s="3"/>
       <c r="B33" s="1">
         <v>29</v>
       </c>
@@ -42097,7 +42109,7 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A34" s="2"/>
+      <c r="A34" s="3"/>
       <c r="B34" s="1">
         <v>30</v>
       </c>
@@ -42127,7 +42139,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A35" s="2"/>
+      <c r="A35" s="3"/>
       <c r="B35" s="1">
         <v>31</v>
       </c>
@@ -42157,7 +42169,7 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A36" s="2"/>
+      <c r="A36" s="3"/>
       <c r="B36" s="1">
         <v>32</v>
       </c>
@@ -42187,7 +42199,7 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A37" s="2"/>
+      <c r="A37" s="3"/>
       <c r="B37" s="1">
         <v>33</v>
       </c>
@@ -42217,7 +42229,7 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A38" s="2"/>
+      <c r="A38" s="3"/>
       <c r="B38" s="1">
         <v>34</v>
       </c>
@@ -42247,7 +42259,7 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A39" s="2"/>
+      <c r="A39" s="3"/>
       <c r="B39" s="1">
         <v>35</v>
       </c>
@@ -42277,7 +42289,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A40" s="2"/>
+      <c r="A40" s="3"/>
       <c r="B40" s="1">
         <v>36</v>
       </c>
@@ -42307,7 +42319,7 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A41" s="2"/>
+      <c r="A41" s="3"/>
       <c r="B41" s="1">
         <v>37</v>
       </c>
@@ -42337,7 +42349,7 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A42" s="2"/>
+      <c r="A42" s="3"/>
       <c r="B42" s="1">
         <v>38</v>
       </c>
@@ -42367,7 +42379,7 @@
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A43" s="2"/>
+      <c r="A43" s="3"/>
       <c r="B43" s="1">
         <v>39</v>
       </c>
@@ -42397,7 +42409,7 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A44" s="2"/>
+      <c r="A44" s="3"/>
       <c r="B44" s="1">
         <v>40</v>
       </c>
@@ -42427,7 +42439,7 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A45" s="2"/>
+      <c r="A45" s="3"/>
       <c r="B45" s="1">
         <v>41</v>
       </c>
@@ -42457,7 +42469,7 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A46" s="2"/>
+      <c r="A46" s="3"/>
       <c r="B46" s="1">
         <v>42</v>
       </c>
@@ -42487,7 +42499,7 @@
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A47" s="2"/>
+      <c r="A47" s="3"/>
       <c r="B47" s="1">
         <v>43</v>
       </c>
@@ -42517,7 +42529,7 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A48" s="2"/>
+      <c r="A48" s="3"/>
       <c r="B48" s="1">
         <v>44</v>
       </c>
@@ -42547,7 +42559,7 @@
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A49" s="2"/>
+      <c r="A49" s="3"/>
       <c r="B49" s="1">
         <v>45</v>
       </c>
@@ -42577,7 +42589,7 @@
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A50" s="2"/>
+      <c r="A50" s="3"/>
       <c r="B50" s="1">
         <v>46</v>
       </c>
@@ -42607,7 +42619,7 @@
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A51" s="2"/>
+      <c r="A51" s="3"/>
       <c r="B51" s="1">
         <v>47</v>
       </c>
@@ -42637,7 +42649,7 @@
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A52" s="2"/>
+      <c r="A52" s="3"/>
       <c r="B52" s="1">
         <v>48</v>
       </c>
@@ -42667,7 +42679,7 @@
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A53" s="2"/>
+      <c r="A53" s="3"/>
       <c r="B53" s="1">
         <v>49</v>
       </c>
@@ -42697,7 +42709,7 @@
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A54" s="2"/>
+      <c r="A54" s="3"/>
       <c r="B54" s="1">
         <v>50</v>
       </c>
@@ -42727,7 +42739,7 @@
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A55" s="2"/>
+      <c r="A55" s="3"/>
       <c r="B55" s="1">
         <v>51</v>
       </c>
@@ -42757,7 +42769,7 @@
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A56" s="2"/>
+      <c r="A56" s="3"/>
       <c r="B56" s="1">
         <v>52</v>
       </c>
@@ -42787,7 +42799,7 @@
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A57" s="2"/>
+      <c r="A57" s="3"/>
       <c r="B57" s="1">
         <v>53</v>
       </c>
@@ -42817,7 +42829,7 @@
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A58" s="2"/>
+      <c r="A58" s="3"/>
       <c r="B58" s="1">
         <v>54</v>
       </c>
@@ -42847,7 +42859,7 @@
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A59" s="2"/>
+      <c r="A59" s="3"/>
       <c r="B59" s="1">
         <v>55</v>
       </c>
@@ -42877,7 +42889,7 @@
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A60" s="2"/>
+      <c r="A60" s="3"/>
       <c r="B60" s="1">
         <v>56</v>
       </c>
@@ -42907,7 +42919,7 @@
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A61" s="2"/>
+      <c r="A61" s="3"/>
       <c r="B61" s="1">
         <v>57</v>
       </c>
@@ -42937,7 +42949,7 @@
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A62" s="2"/>
+      <c r="A62" s="3"/>
       <c r="B62" s="1">
         <v>58</v>
       </c>
@@ -42967,7 +42979,7 @@
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A63" s="2"/>
+      <c r="A63" s="3"/>
       <c r="B63" s="1">
         <v>59</v>
       </c>
@@ -42997,7 +43009,7 @@
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A64" s="2"/>
+      <c r="A64" s="3"/>
       <c r="B64" s="1">
         <v>60</v>
       </c>
@@ -43027,7 +43039,7 @@
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A65" s="2"/>
+      <c r="A65" s="3"/>
       <c r="B65" s="1">
         <v>61</v>
       </c>
@@ -43057,7 +43069,7 @@
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A66" s="2"/>
+      <c r="A66" s="3"/>
       <c r="B66" s="1">
         <v>62</v>
       </c>
@@ -43087,7 +43099,7 @@
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A67" s="2"/>
+      <c r="A67" s="3"/>
       <c r="B67" s="1">
         <v>63</v>
       </c>
@@ -43117,7 +43129,7 @@
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A68" s="2"/>
+      <c r="A68" s="3"/>
       <c r="B68" s="1">
         <v>64</v>
       </c>
@@ -43147,7 +43159,7 @@
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A69" s="2"/>
+      <c r="A69" s="3"/>
       <c r="B69" s="1">
         <v>65</v>
       </c>
@@ -43177,7 +43189,7 @@
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A70" s="2"/>
+      <c r="A70" s="3"/>
       <c r="B70" s="1">
         <v>66</v>
       </c>
@@ -43207,7 +43219,7 @@
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A71" s="2"/>
+      <c r="A71" s="3"/>
       <c r="B71" s="1">
         <v>67</v>
       </c>
@@ -43237,7 +43249,7 @@
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A72" s="2"/>
+      <c r="A72" s="3"/>
       <c r="B72" s="1">
         <v>68</v>
       </c>
@@ -43267,7 +43279,7 @@
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A73" s="2"/>
+      <c r="A73" s="3"/>
       <c r="B73" s="1">
         <v>69</v>
       </c>
@@ -43297,7 +43309,7 @@
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A74" s="2"/>
+      <c r="A74" s="3"/>
       <c r="B74" s="1">
         <v>70</v>
       </c>
@@ -43327,7 +43339,7 @@
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A75" s="2"/>
+      <c r="A75" s="3"/>
       <c r="B75" s="1">
         <v>71</v>
       </c>
@@ -43357,7 +43369,7 @@
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A76" s="2"/>
+      <c r="A76" s="3"/>
       <c r="B76" s="1">
         <v>72</v>
       </c>
@@ -43387,7 +43399,7 @@
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A77" s="2"/>
+      <c r="A77" s="3"/>
       <c r="B77" s="1">
         <v>73</v>
       </c>
@@ -43417,7 +43429,7 @@
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A78" s="2"/>
+      <c r="A78" s="3"/>
       <c r="B78" s="1">
         <v>74</v>
       </c>
@@ -43447,7 +43459,7 @@
       </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A79" s="2"/>
+      <c r="A79" s="3"/>
       <c r="B79" s="1">
         <v>75</v>
       </c>
@@ -43477,7 +43489,7 @@
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A80" s="2"/>
+      <c r="A80" s="3"/>
       <c r="B80" s="1">
         <v>76</v>
       </c>
@@ -43507,7 +43519,7 @@
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A81" s="2"/>
+      <c r="A81" s="3"/>
       <c r="B81" s="1">
         <v>77</v>
       </c>
@@ -43537,7 +43549,7 @@
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A82" s="2"/>
+      <c r="A82" s="3"/>
       <c r="B82" s="1">
         <v>78</v>
       </c>
@@ -43567,7 +43579,7 @@
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A83" s="2"/>
+      <c r="A83" s="3"/>
       <c r="B83" s="1">
         <v>79</v>
       </c>
@@ -43597,7 +43609,7 @@
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A84" s="2"/>
+      <c r="A84" s="3"/>
       <c r="B84" s="1">
         <v>80</v>
       </c>
@@ -43627,7 +43639,7 @@
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A85" s="2"/>
+      <c r="A85" s="3"/>
       <c r="B85" s="1">
         <v>81</v>
       </c>
@@ -43657,7 +43669,7 @@
       </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A86" s="2"/>
+      <c r="A86" s="3"/>
       <c r="B86" s="1">
         <v>82</v>
       </c>
@@ -43687,7 +43699,7 @@
       </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A87" s="2"/>
+      <c r="A87" s="3"/>
       <c r="B87" s="1">
         <v>83</v>
       </c>
@@ -43717,7 +43729,7 @@
       </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A88" s="2"/>
+      <c r="A88" s="3"/>
       <c r="B88" s="1">
         <v>84</v>
       </c>
@@ -43747,7 +43759,7 @@
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A89" s="2"/>
+      <c r="A89" s="3"/>
       <c r="B89" s="1">
         <v>85</v>
       </c>
@@ -43777,7 +43789,7 @@
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A90" s="2"/>
+      <c r="A90" s="3"/>
       <c r="B90" s="1">
         <v>86</v>
       </c>
@@ -43807,7 +43819,7 @@
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A91" s="2"/>
+      <c r="A91" s="3"/>
       <c r="B91" s="1">
         <v>87</v>
       </c>
@@ -43837,7 +43849,7 @@
       </c>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A92" s="2"/>
+      <c r="A92" s="3"/>
       <c r="B92" s="1">
         <v>88</v>
       </c>
@@ -43867,7 +43879,7 @@
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A93" s="2"/>
+      <c r="A93" s="3"/>
       <c r="B93" s="1">
         <v>89</v>
       </c>
@@ -43897,7 +43909,7 @@
       </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A94" s="2"/>
+      <c r="A94" s="3"/>
       <c r="B94" s="1">
         <v>90</v>
       </c>
@@ -43927,7 +43939,7 @@
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A95" s="2"/>
+      <c r="A95" s="3"/>
       <c r="B95" s="1">
         <v>91</v>
       </c>
@@ -43957,7 +43969,7 @@
       </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A96" s="2"/>
+      <c r="A96" s="3"/>
       <c r="B96" s="1">
         <v>92</v>
       </c>
@@ -43987,7 +43999,7 @@
       </c>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A97" s="2"/>
+      <c r="A97" s="3"/>
       <c r="B97" s="1">
         <v>93</v>
       </c>
@@ -44017,7 +44029,7 @@
       </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A98" s="2"/>
+      <c r="A98" s="3"/>
       <c r="B98" s="1">
         <v>94</v>
       </c>
@@ -44047,7 +44059,7 @@
       </c>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A99" s="2"/>
+      <c r="A99" s="3"/>
       <c r="B99" s="1">
         <v>95</v>
       </c>
@@ -44077,7 +44089,7 @@
       </c>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A100" s="2"/>
+      <c r="A100" s="3"/>
       <c r="B100" s="1">
         <v>96</v>
       </c>
@@ -44548,7 +44560,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>3</v>
       </c>
       <c r="B3" s="1">
@@ -44556,55 +44568,55 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
+      <c r="A4" s="3"/>
       <c r="B4" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
+      <c r="A5" s="3"/>
       <c r="B5" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
+      <c r="A6" s="3"/>
       <c r="B6" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
+      <c r="A7" s="3"/>
       <c r="B7" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
+      <c r="A8" s="3"/>
       <c r="B8" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
+      <c r="A9" s="3"/>
       <c r="B9" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
+      <c r="A10" s="3"/>
       <c r="B10" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
+      <c r="A11" s="3"/>
       <c r="B11" s="1">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
+      <c r="A12" s="3"/>
       <c r="B12" s="1">
         <v>10</v>
       </c>
@@ -44637,7 +44649,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
+      <c r="A13" s="3"/>
       <c r="B13" s="1">
         <v>11</v>
       </c>
@@ -44670,7 +44682,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
+      <c r="A14" s="3"/>
       <c r="B14" s="1">
         <v>12</v>
       </c>
@@ -44703,7 +44715,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
+      <c r="A15" s="3"/>
       <c r="B15" s="1">
         <v>13</v>
       </c>
@@ -44736,7 +44748,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
+      <c r="A16" s="3"/>
       <c r="B16" s="1">
         <v>14</v>
       </c>
@@ -44769,7 +44781,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
+      <c r="A17" s="3"/>
       <c r="B17" s="1">
         <v>15</v>
       </c>
@@ -44802,7 +44814,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
+      <c r="A18" s="3"/>
       <c r="B18" s="1">
         <v>16</v>
       </c>
@@ -44835,7 +44847,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
+      <c r="A19" s="3"/>
       <c r="B19" s="1">
         <v>17</v>
       </c>
@@ -44868,7 +44880,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
+      <c r="A20" s="3"/>
       <c r="B20" s="1">
         <v>18</v>
       </c>
@@ -44901,469 +44913,469 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
+      <c r="A21" s="3"/>
       <c r="B21" s="1">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
+      <c r="A22" s="3"/>
       <c r="B22" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" s="2"/>
+      <c r="A23" s="3"/>
       <c r="B23" s="1">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A24" s="2"/>
+      <c r="A24" s="3"/>
       <c r="B24" s="1">
         <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A25" s="2"/>
+      <c r="A25" s="3"/>
       <c r="B25" s="1">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
+      <c r="A26" s="3"/>
       <c r="B26" s="1">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A27" s="2"/>
+      <c r="A27" s="3"/>
       <c r="B27" s="1">
         <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A28" s="2"/>
+      <c r="A28" s="3"/>
       <c r="B28" s="1">
         <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A29" s="2"/>
+      <c r="A29" s="3"/>
       <c r="B29" s="1">
         <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A30" s="2"/>
+      <c r="A30" s="3"/>
       <c r="B30" s="1">
         <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A31" s="2"/>
+      <c r="A31" s="3"/>
       <c r="B31" s="1">
         <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A32" s="2"/>
+      <c r="A32" s="3"/>
       <c r="B32" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="2"/>
+      <c r="A33" s="3"/>
       <c r="B33" s="1">
         <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="2"/>
+      <c r="A34" s="3"/>
       <c r="B34" s="1">
         <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="2"/>
+      <c r="A35" s="3"/>
       <c r="B35" s="1">
         <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="2"/>
+      <c r="A36" s="3"/>
       <c r="B36" s="1">
         <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="2"/>
+      <c r="A37" s="3"/>
       <c r="B37" s="1">
         <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="2"/>
+      <c r="A38" s="3"/>
       <c r="B38" s="1">
         <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="2"/>
+      <c r="A39" s="3"/>
       <c r="B39" s="1">
         <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="2"/>
+      <c r="A40" s="3"/>
       <c r="B40" s="1">
         <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="2"/>
+      <c r="A41" s="3"/>
       <c r="B41" s="1">
         <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="2"/>
+      <c r="A42" s="3"/>
       <c r="B42" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="2"/>
+      <c r="A43" s="3"/>
       <c r="B43" s="1">
         <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="2"/>
+      <c r="A44" s="3"/>
       <c r="B44" s="1">
         <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="2"/>
+      <c r="A45" s="3"/>
       <c r="B45" s="1">
         <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="2"/>
+      <c r="A46" s="3"/>
       <c r="B46" s="1">
         <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="2"/>
+      <c r="A47" s="3"/>
       <c r="B47" s="1">
         <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="2"/>
+      <c r="A48" s="3"/>
       <c r="B48" s="1">
         <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="2"/>
+      <c r="A49" s="3"/>
       <c r="B49" s="1">
         <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="2"/>
+      <c r="A50" s="3"/>
       <c r="B50" s="1">
         <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="2"/>
+      <c r="A51" s="3"/>
       <c r="B51" s="1">
         <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="2"/>
+      <c r="A52" s="3"/>
       <c r="B52" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" s="2"/>
+      <c r="A53" s="3"/>
       <c r="B53" s="1">
         <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="2"/>
+      <c r="A54" s="3"/>
       <c r="B54" s="1">
         <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="2"/>
+      <c r="A55" s="3"/>
       <c r="B55" s="1">
         <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" s="2"/>
+      <c r="A56" s="3"/>
       <c r="B56" s="1">
         <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" s="2"/>
+      <c r="A57" s="3"/>
       <c r="B57" s="1">
         <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" s="2"/>
+      <c r="A58" s="3"/>
       <c r="B58" s="1">
         <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" s="2"/>
+      <c r="A59" s="3"/>
       <c r="B59" s="1">
         <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" s="2"/>
+      <c r="A60" s="3"/>
       <c r="B60" s="1">
         <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" s="2"/>
+      <c r="A61" s="3"/>
       <c r="B61" s="1">
         <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" s="2"/>
+      <c r="A62" s="3"/>
       <c r="B62" s="1">
         <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" s="2"/>
+      <c r="A63" s="3"/>
       <c r="B63" s="1">
         <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" s="2"/>
+      <c r="A64" s="3"/>
       <c r="B64" s="1">
         <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" s="2"/>
+      <c r="A65" s="3"/>
       <c r="B65" s="1">
         <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" s="2"/>
+      <c r="A66" s="3"/>
       <c r="B66" s="1">
         <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" s="2"/>
+      <c r="A67" s="3"/>
       <c r="B67" s="1">
         <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" s="2"/>
+      <c r="A68" s="3"/>
       <c r="B68" s="1">
         <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" s="2"/>
+      <c r="A69" s="3"/>
       <c r="B69" s="1">
         <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" s="2"/>
+      <c r="A70" s="3"/>
       <c r="B70" s="1">
         <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" s="2"/>
+      <c r="A71" s="3"/>
       <c r="B71" s="1">
         <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" s="2"/>
+      <c r="A72" s="3"/>
       <c r="B72" s="1">
         <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" s="2"/>
+      <c r="A73" s="3"/>
       <c r="B73" s="1">
         <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" s="2"/>
+      <c r="A74" s="3"/>
       <c r="B74" s="1">
         <v>72</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" s="2"/>
+      <c r="A75" s="3"/>
       <c r="B75" s="1">
         <v>73</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76" s="2"/>
+      <c r="A76" s="3"/>
       <c r="B76" s="1">
         <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" s="2"/>
+      <c r="A77" s="3"/>
       <c r="B77" s="1">
         <v>75</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" s="2"/>
+      <c r="A78" s="3"/>
       <c r="B78" s="1">
         <v>76</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A79" s="2"/>
+      <c r="A79" s="3"/>
       <c r="B79" s="1">
         <v>77</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80" s="2"/>
+      <c r="A80" s="3"/>
       <c r="B80" s="1">
         <v>78</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" s="2"/>
+      <c r="A81" s="3"/>
       <c r="B81" s="1">
         <v>79</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82" s="2"/>
+      <c r="A82" s="3"/>
       <c r="B82" s="1">
         <v>80</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" s="2"/>
+      <c r="A83" s="3"/>
       <c r="B83" s="1">
         <v>81</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" s="2"/>
+      <c r="A84" s="3"/>
       <c r="B84" s="1">
         <v>82</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85" s="2"/>
+      <c r="A85" s="3"/>
       <c r="B85" s="1">
         <v>83</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" s="2"/>
+      <c r="A86" s="3"/>
       <c r="B86" s="1">
         <v>84</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87" s="2"/>
+      <c r="A87" s="3"/>
       <c r="B87" s="1">
         <v>85</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88" s="2"/>
+      <c r="A88" s="3"/>
       <c r="B88" s="1">
         <v>86</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89" s="2"/>
+      <c r="A89" s="3"/>
       <c r="B89" s="1">
         <v>87</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A90" s="2"/>
+      <c r="A90" s="3"/>
       <c r="B90" s="1">
         <v>88</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A91" s="2"/>
+      <c r="A91" s="3"/>
       <c r="B91" s="1">
         <v>89</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A92" s="2"/>
+      <c r="A92" s="3"/>
       <c r="B92" s="1">
         <v>90</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A93" s="2"/>
+      <c r="A93" s="3"/>
       <c r="B93" s="1">
         <v>91</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94" s="2"/>
+      <c r="A94" s="3"/>
       <c r="B94" s="1">
         <v>92</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A95" s="2"/>
+      <c r="A95" s="3"/>
       <c r="B95" s="1">
         <v>93</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A96" s="2"/>
+      <c r="A96" s="3"/>
       <c r="B96" s="1">
         <v>94</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A97" s="2"/>
+      <c r="A97" s="3"/>
       <c r="B97" s="1">
         <v>95</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A98" s="2"/>
+      <c r="A98" s="3"/>
       <c r="B98" s="1">
         <v>96</v>
       </c>
@@ -45424,7 +45436,7 @@
         <v>136</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -59112,7 +59124,7 @@
         <v>136</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -69171,7 +69183,7 @@
         <v>683</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>126</v>
@@ -69210,7 +69222,7 @@
         <v>685</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
@@ -69349,7 +69361,7 @@
         <v>683</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>126</v>
@@ -69388,7 +69400,7 @@
         <v>685</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
@@ -69554,7 +69566,7 @@
         <v>136</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
